--- a/Codigo/Bases/datos_administrativos/Indicadores_de_Género/PARTICIPACIÓN_SOCIOPOLÍTICA/Diputados 2023.xlsx
+++ b/Codigo/Bases/datos_administrativos/Indicadores_de_Género/PARTICIPACIÓN_SOCIOPOLÍTICA/Diputados 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eeovalle\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgalvez\OneDrive - ine.gob.gt\Documentos\GitHub\CompendioGenero2023\Codigo\Bases\datos_administrativos\Indicadores_de_Género\PARTICIPACIÓN_SOCIOPOLÍTICA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C602D8-629F-4070-A18D-5576A5D4069A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748B1C22-2837-4C5F-B7FA-0C750DF987EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5C418AE3-1C71-4DC2-B280-51D995FEC1BD}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{5C418AE3-1C71-4DC2-B280-51D995FEC1BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Acuerdo No. 1-2012" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="2016" sheetId="5" r:id="rId4"/>
     <sheet name="Acuerdo No. 1-2020" sheetId="3" r:id="rId5"/>
     <sheet name="2020" sheetId="6" r:id="rId6"/>
+    <sheet name="TOTALES" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2012'!$B$8:$D$168</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3214" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3220" uniqueCount="567">
   <si>
     <t>Nombre</t>
   </si>
@@ -1668,12 +1669,6 @@
     <t>Cantidad de mujeres electas para diputadas 2012</t>
   </si>
   <si>
-    <t>total  2012</t>
-  </si>
-  <si>
-    <t>total  2016</t>
-  </si>
-  <si>
     <t>Convergencia</t>
   </si>
   <si>
@@ -1747,6 +1742,12 @@
   </si>
   <si>
     <t>Yesmín María Poroj Orellana</t>
+  </si>
+  <si>
+    <t>Casos</t>
+  </si>
+  <si>
+    <t>Año</t>
   </si>
 </sst>
 </file>
@@ -1850,7 +1851,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1901,6 +1902,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1913,7 +1915,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1932,7 +1935,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2230,11 +2233,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915E8EFA-D073-4D82-9CAC-39E2D0BB047C}">
   <dimension ref="A1:C249"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
@@ -2242,11 +2245,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2601,11 +2604,11 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -2740,11 +2743,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -2945,11 +2948,11 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
@@ -2996,11 +2999,11 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="20" t="s">
+      <c r="A79" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
     </row>
     <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
@@ -3069,11 +3072,11 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A88" s="20" t="s">
+      <c r="A88" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
     </row>
     <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
@@ -3098,11 +3101,11 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="21"/>
-      <c r="C93" s="21"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
     </row>
     <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
@@ -3182,11 +3185,11 @@
       </c>
     </row>
     <row r="103" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A103" s="20" t="s">
+      <c r="A103" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B103" s="21"/>
-      <c r="C103" s="21"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="22"/>
     </row>
     <row r="105" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
@@ -3233,11 +3236,11 @@
       </c>
     </row>
     <row r="110" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A110" s="20" t="s">
+      <c r="A110" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B110" s="21"/>
-      <c r="C110" s="21"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="22"/>
     </row>
     <row r="112" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
@@ -3284,11 +3287,11 @@
       </c>
     </row>
     <row r="117" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A117" s="20" t="s">
+      <c r="A117" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B117" s="21"/>
-      <c r="C117" s="21"/>
+      <c r="B117" s="22"/>
+      <c r="C117" s="22"/>
     </row>
     <row r="119" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
@@ -3346,11 +3349,11 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A125" s="20" t="s">
+      <c r="A125" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B125" s="21"/>
-      <c r="C125" s="21"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="22"/>
     </row>
     <row r="127" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
@@ -3441,11 +3444,11 @@
       </c>
     </row>
     <row r="136" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A136" s="20" t="s">
+      <c r="A136" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B136" s="21"/>
-      <c r="C136" s="21"/>
+      <c r="B136" s="22"/>
+      <c r="C136" s="22"/>
     </row>
     <row r="138" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
@@ -3514,11 +3517,11 @@
       </c>
     </row>
     <row r="145" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A145" s="20" t="s">
+      <c r="A145" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="B145" s="21"/>
-      <c r="C145" s="21"/>
+      <c r="B145" s="22"/>
+      <c r="C145" s="22"/>
     </row>
     <row r="147" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
@@ -3565,11 +3568,11 @@
       </c>
     </row>
     <row r="152" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A152" s="20" t="s">
+      <c r="A152" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B152" s="21"/>
-      <c r="C152" s="21"/>
+      <c r="B152" s="22"/>
+      <c r="C152" s="22"/>
     </row>
     <row r="154" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
@@ -3682,11 +3685,11 @@
       </c>
     </row>
     <row r="165" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A165" s="20" t="s">
+      <c r="A165" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="B165" s="21"/>
-      <c r="C165" s="21"/>
+      <c r="B165" s="22"/>
+      <c r="C165" s="22"/>
     </row>
     <row r="167" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
@@ -3810,11 +3813,11 @@
       </c>
     </row>
     <row r="179" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A179" s="20" t="s">
+      <c r="A179" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="B179" s="21"/>
-      <c r="C179" s="21"/>
+      <c r="B179" s="22"/>
+      <c r="C179" s="22"/>
     </row>
     <row r="181" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
@@ -3916,11 +3919,11 @@
       </c>
     </row>
     <row r="191" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A191" s="20" t="s">
+      <c r="A191" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="B191" s="21"/>
-      <c r="C191" s="21"/>
+      <c r="B191" s="22"/>
+      <c r="C191" s="22"/>
     </row>
     <row r="193" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
@@ -3956,11 +3959,11 @@
       </c>
     </row>
     <row r="197" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A197" s="20" t="s">
+      <c r="A197" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="B197" s="20"/>
-      <c r="C197" s="20"/>
+      <c r="B197" s="21"/>
+      <c r="C197" s="21"/>
     </row>
     <row r="199" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
@@ -4051,11 +4054,11 @@
       </c>
     </row>
     <row r="208" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A208" s="20" t="s">
+      <c r="A208" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="B208" s="20"/>
-      <c r="C208" s="20"/>
+      <c r="B208" s="21"/>
+      <c r="C208" s="21"/>
     </row>
     <row r="210" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
@@ -4113,11 +4116,11 @@
       </c>
     </row>
     <row r="216" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A216" s="20" t="s">
+      <c r="A216" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="B216" s="20"/>
-      <c r="C216" s="20"/>
+      <c r="B216" s="21"/>
+      <c r="C216" s="21"/>
     </row>
     <row r="218" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
@@ -4167,11 +4170,11 @@
       <c r="B222" s="1"/>
     </row>
     <row r="223" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A223" s="20" t="s">
+      <c r="A223" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="B223" s="20"/>
-      <c r="C223" s="20"/>
+      <c r="B223" s="21"/>
+      <c r="C223" s="21"/>
     </row>
     <row r="225" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
@@ -4207,11 +4210,11 @@
       </c>
     </row>
     <row r="229" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A229" s="20" t="s">
+      <c r="A229" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="B229" s="20"/>
-      <c r="C229" s="20"/>
+      <c r="B229" s="21"/>
+      <c r="C229" s="21"/>
     </row>
     <row r="231" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
@@ -4258,11 +4261,11 @@
       </c>
     </row>
     <row r="236" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A236" s="20" t="s">
+      <c r="A236" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="B236" s="20"/>
-      <c r="C236" s="20"/>
+      <c r="B236" s="21"/>
+      <c r="C236" s="21"/>
     </row>
     <row r="238" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
@@ -4309,11 +4312,11 @@
       </c>
     </row>
     <row r="243" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A243" s="20" t="s">
+      <c r="A243" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="B243" s="20"/>
-      <c r="C243" s="20"/>
+      <c r="B243" s="21"/>
+      <c r="C243" s="21"/>
     </row>
     <row r="245" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
@@ -4372,6 +4375,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="A216:C216"/>
+    <mergeCell ref="A223:C223"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A236:C236"/>
     <mergeCell ref="A136:C136"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A36:C36"/>
@@ -4384,18 +4399,6 @@
     <mergeCell ref="A110:C110"/>
     <mergeCell ref="A117:C117"/>
     <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A243:C243"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A165:C165"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A208:C208"/>
-    <mergeCell ref="A216:C216"/>
-    <mergeCell ref="A223:C223"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A236:C236"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4406,11 +4409,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0569D498-797F-4D45-B97E-AD0C7C95A462}">
   <dimension ref="A1:N168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
@@ -4420,15 +4423,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="I2" s="8" t="s">
-        <v>540</v>
+      <c r="I2" s="8">
+        <v>2012</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>532</v>
@@ -6608,7 +6611,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B163" s="14" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C163" s="15" t="s">
         <v>4</v>
@@ -6622,7 +6625,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B164" s="14" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C164" s="15" t="s">
         <v>97</v>
@@ -6636,7 +6639,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B165" s="14" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C165" s="15" t="s">
         <v>4</v>
@@ -6647,18 +6650,18 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B166" s="14" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C166" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B167" s="14" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C167" s="15" t="s">
         <v>4</v>
@@ -6669,7 +6672,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B168" s="14" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C168" s="15" t="s">
         <v>4</v>
@@ -6693,10 +6696,10 @@
   <dimension ref="A1:C250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:C1048576"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
@@ -6704,11 +6707,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -7052,11 +7055,11 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -7191,11 +7194,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -7407,11 +7410,11 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
@@ -7458,11 +7461,11 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="20" t="s">
+      <c r="A79" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
     </row>
     <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
@@ -7536,11 +7539,11 @@
       <c r="C87" s="1"/>
     </row>
     <row r="88" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A88" s="20" t="s">
+      <c r="A88" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
     </row>
     <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
@@ -7565,11 +7568,11 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
     </row>
     <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
@@ -7649,11 +7652,11 @@
       </c>
     </row>
     <row r="103" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A103" s="20" t="s">
+      <c r="A103" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B103" s="20"/>
-      <c r="C103" s="20"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
     </row>
     <row r="105" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
@@ -7700,11 +7703,11 @@
       </c>
     </row>
     <row r="110" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A110" s="20" t="s">
+      <c r="A110" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="B110" s="20"/>
-      <c r="C110" s="20"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="21"/>
     </row>
     <row r="112" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
@@ -7751,11 +7754,11 @@
       </c>
     </row>
     <row r="117" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A117" s="20" t="s">
+      <c r="A117" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="B117" s="20"/>
-      <c r="C117" s="20"/>
+      <c r="B117" s="21"/>
+      <c r="C117" s="21"/>
     </row>
     <row r="119" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
@@ -7813,11 +7816,11 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A125" s="20" t="s">
+      <c r="A125" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="B125" s="20"/>
-      <c r="C125" s="20"/>
+      <c r="B125" s="21"/>
+      <c r="C125" s="21"/>
     </row>
     <row r="127" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
@@ -7908,11 +7911,11 @@
       </c>
     </row>
     <row r="136" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A136" s="20" t="s">
+      <c r="A136" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="B136" s="20"/>
-      <c r="C136" s="20"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="21"/>
     </row>
     <row r="138" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
@@ -7981,11 +7984,11 @@
       </c>
     </row>
     <row r="145" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A145" s="20" t="s">
+      <c r="A145" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="B145" s="20"/>
-      <c r="C145" s="20"/>
+      <c r="B145" s="21"/>
+      <c r="C145" s="21"/>
     </row>
     <row r="147" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
@@ -8032,11 +8035,11 @@
       </c>
     </row>
     <row r="152" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A152" s="20" t="s">
+      <c r="A152" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="B152" s="20"/>
-      <c r="C152" s="20"/>
+      <c r="B152" s="21"/>
+      <c r="C152" s="21"/>
     </row>
     <row r="154" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
@@ -8149,11 +8152,11 @@
       </c>
     </row>
     <row r="165" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A165" s="20" t="s">
+      <c r="A165" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="B165" s="20"/>
-      <c r="C165" s="20"/>
+      <c r="B165" s="21"/>
+      <c r="C165" s="21"/>
     </row>
     <row r="167" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
@@ -8277,11 +8280,11 @@
       </c>
     </row>
     <row r="179" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A179" s="20" t="s">
+      <c r="A179" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="B179" s="20"/>
-      <c r="C179" s="20"/>
+      <c r="B179" s="21"/>
+      <c r="C179" s="21"/>
     </row>
     <row r="181" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
@@ -8383,11 +8386,11 @@
       </c>
     </row>
     <row r="191" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A191" s="20" t="s">
+      <c r="A191" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="B191" s="20"/>
-      <c r="C191" s="20"/>
+      <c r="B191" s="21"/>
+      <c r="C191" s="21"/>
     </row>
     <row r="193" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
@@ -8423,11 +8426,11 @@
       </c>
     </row>
     <row r="197" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A197" s="20" t="s">
+      <c r="A197" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="B197" s="20"/>
-      <c r="C197" s="20"/>
+      <c r="B197" s="21"/>
+      <c r="C197" s="21"/>
     </row>
     <row r="199" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
@@ -8540,11 +8543,11 @@
       </c>
     </row>
     <row r="210" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A210" s="20" t="s">
+      <c r="A210" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="B210" s="20"/>
-      <c r="C210" s="20"/>
+      <c r="B210" s="21"/>
+      <c r="C210" s="21"/>
     </row>
     <row r="212" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
@@ -8602,11 +8605,11 @@
       </c>
     </row>
     <row r="218" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A218" s="20" t="s">
+      <c r="A218" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="B218" s="20"/>
-      <c r="C218" s="20"/>
+      <c r="B218" s="21"/>
+      <c r="C218" s="21"/>
     </row>
     <row r="220" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
@@ -8653,11 +8656,11 @@
       </c>
     </row>
     <row r="225" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A225" s="20" t="s">
+      <c r="A225" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="B225" s="20"/>
-      <c r="C225" s="20"/>
+      <c r="B225" s="21"/>
+      <c r="C225" s="21"/>
     </row>
     <row r="227" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
@@ -8696,11 +8699,11 @@
       <c r="B230" s="1"/>
     </row>
     <row r="231" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A231" s="20" t="s">
+      <c r="A231" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="B231" s="20"/>
-      <c r="C231" s="20"/>
+      <c r="B231" s="21"/>
+      <c r="C231" s="21"/>
     </row>
     <row r="233" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
@@ -8747,11 +8750,11 @@
       </c>
     </row>
     <row r="238" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A238" s="20" t="s">
+      <c r="A238" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="B238" s="20"/>
-      <c r="C238" s="20"/>
+      <c r="B238" s="21"/>
+      <c r="C238" s="21"/>
     </row>
     <row r="240" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
@@ -8798,11 +8801,11 @@
       </c>
     </row>
     <row r="245" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A245" s="20" t="s">
+      <c r="A245" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="B245" s="20"/>
-      <c r="C245" s="20"/>
+      <c r="B245" s="21"/>
+      <c r="C245" s="21"/>
     </row>
     <row r="247" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
@@ -8850,11 +8853,13 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A218:C218"/>
-    <mergeCell ref="A225:C225"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A245:C245"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A88:C88"/>
     <mergeCell ref="A210:C210"/>
     <mergeCell ref="A103:C103"/>
     <mergeCell ref="A110:C110"/>
@@ -8867,13 +8872,11 @@
     <mergeCell ref="A179:C179"/>
     <mergeCell ref="A191:C191"/>
     <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A218:C218"/>
+    <mergeCell ref="A225:C225"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A245:C245"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8885,11 +8888,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L178"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
@@ -8898,15 +8901,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="3" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="G3" s="8" t="s">
-        <v>541</v>
+      <c r="G3" s="8">
+        <v>2016</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>532</v>
@@ -8964,7 +8967,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K8" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -8988,7 +8991,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K11" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="L11">
         <v>3</v>
@@ -9510,7 +9513,7 @@
     </row>
     <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>4</v>
@@ -10747,7 +10750,7 @@
     </row>
     <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="14" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B170" s="15" t="s">
         <v>4</v>
@@ -10769,7 +10772,7 @@
     </row>
     <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B172" s="15" t="s">
         <v>4</v>
@@ -10777,45 +10780,45 @@
     </row>
     <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="14" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B173" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C173" s="24" t="s">
-        <v>554</v>
+      <c r="C173" s="20" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B174" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C174" s="24" t="s">
+      <c r="C174" s="20" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B175" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C175" s="24" t="s">
+      <c r="C175" s="20" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B176" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C176" s="24" t="s">
+      <c r="C176" s="20" t="s">
         <v>71</v>
       </c>
     </row>
@@ -10826,16 +10829,16 @@
       <c r="B177" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C177" s="24" t="s">
+      <c r="C177" s="20" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D178">
         <v>2019</v>
@@ -10861,11 +10864,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939E81CF-0C50-43B5-B4CF-6EA76ED53EFC}">
   <dimension ref="A2:C262"/>
   <sheetViews>
-    <sheetView topLeftCell="A236" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A237" sqref="A1:C1048576"/>
+    <sheetView topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
@@ -10873,11 +10876,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -11254,11 +11257,11 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -11393,11 +11396,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
@@ -11620,11 +11623,11 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="20" t="s">
+      <c r="A77" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
     </row>
     <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
@@ -11671,11 +11674,11 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="20" t="s">
+      <c r="A84" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
     </row>
     <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
@@ -11744,11 +11747,11 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
     </row>
     <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
@@ -11784,11 +11787,11 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="20" t="s">
+      <c r="A99" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="B99" s="20"/>
-      <c r="C99" s="20"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="21"/>
     </row>
     <row r="101" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
@@ -11868,11 +11871,11 @@
       </c>
     </row>
     <row r="109" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A109" s="20" t="s">
+      <c r="A109" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B109" s="20"/>
-      <c r="C109" s="20"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="21"/>
     </row>
     <row r="111" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
@@ -11919,11 +11922,11 @@
       </c>
     </row>
     <row r="116" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A116" s="20" t="s">
+      <c r="A116" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B116" s="20"/>
-      <c r="C116" s="20"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="21"/>
     </row>
     <row r="118" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
@@ -11970,11 +11973,11 @@
       </c>
     </row>
     <row r="123" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A123" s="20" t="s">
+      <c r="A123" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="B123" s="20"/>
-      <c r="C123" s="20"/>
+      <c r="B123" s="21"/>
+      <c r="C123" s="21"/>
     </row>
     <row r="125" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
@@ -12021,11 +12024,11 @@
       </c>
     </row>
     <row r="130" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A130" s="20" t="s">
+      <c r="A130" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="B130" s="20"/>
-      <c r="C130" s="20"/>
+      <c r="B130" s="21"/>
+      <c r="C130" s="21"/>
     </row>
     <row r="132" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
@@ -12083,11 +12086,11 @@
       </c>
     </row>
     <row r="138" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A138" s="20" t="s">
+      <c r="A138" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="B138" s="20"/>
-      <c r="C138" s="20"/>
+      <c r="B138" s="21"/>
+      <c r="C138" s="21"/>
     </row>
     <row r="140" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
@@ -12167,11 +12170,11 @@
       </c>
     </row>
     <row r="148" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A148" s="20" t="s">
+      <c r="A148" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="B148" s="20"/>
-      <c r="C148" s="20"/>
+      <c r="B148" s="21"/>
+      <c r="C148" s="21"/>
     </row>
     <row r="150" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
@@ -12240,11 +12243,11 @@
       </c>
     </row>
     <row r="157" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A157" s="20" t="s">
+      <c r="A157" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="B157" s="20"/>
-      <c r="C157" s="20"/>
+      <c r="B157" s="21"/>
+      <c r="C157" s="21"/>
     </row>
     <row r="159" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
@@ -12291,11 +12294,11 @@
       </c>
     </row>
     <row r="164" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A164" s="20" t="s">
+      <c r="A164" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B164" s="20"/>
-      <c r="C164" s="20"/>
+      <c r="B164" s="21"/>
+      <c r="C164" s="21"/>
     </row>
     <row r="166" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
@@ -12397,11 +12400,11 @@
       </c>
     </row>
     <row r="176" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A176" s="20" t="s">
+      <c r="A176" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="B176" s="20"/>
-      <c r="C176" s="20"/>
+      <c r="B176" s="21"/>
+      <c r="C176" s="21"/>
     </row>
     <row r="178" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
@@ -12525,11 +12528,11 @@
       </c>
     </row>
     <row r="190" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A190" s="20" t="s">
+      <c r="A190" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="B190" s="20"/>
-      <c r="C190" s="20"/>
+      <c r="B190" s="21"/>
+      <c r="C190" s="21"/>
     </row>
     <row r="192" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
@@ -12631,11 +12634,11 @@
       </c>
     </row>
     <row r="202" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A202" s="20" t="s">
+      <c r="A202" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="B202" s="20"/>
-      <c r="C202" s="20"/>
+      <c r="B202" s="21"/>
+      <c r="C202" s="21"/>
     </row>
     <row r="204" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
@@ -12671,11 +12674,11 @@
       </c>
     </row>
     <row r="208" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A208" s="20" t="s">
+      <c r="A208" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="B208" s="20"/>
-      <c r="C208" s="20"/>
+      <c r="B208" s="21"/>
+      <c r="C208" s="21"/>
     </row>
     <row r="210" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
@@ -12788,11 +12791,11 @@
       </c>
     </row>
     <row r="221" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A221" s="20" t="s">
+      <c r="A221" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="B221" s="20"/>
-      <c r="C221" s="20"/>
+      <c r="B221" s="21"/>
+      <c r="C221" s="21"/>
     </row>
     <row r="223" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
@@ -12853,11 +12856,11 @@
       <c r="C228" s="1"/>
     </row>
     <row r="229" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A229" s="20" t="s">
+      <c r="A229" s="21" t="s">
         <v>515</v>
       </c>
-      <c r="B229" s="20"/>
-      <c r="C229" s="20"/>
+      <c r="B229" s="21"/>
+      <c r="C229" s="21"/>
     </row>
     <row r="231" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
@@ -12904,11 +12907,11 @@
       </c>
     </row>
     <row r="236" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A236" s="20" t="s">
+      <c r="A236" s="21" t="s">
         <v>519</v>
       </c>
-      <c r="B236" s="20"/>
-      <c r="C236" s="20"/>
+      <c r="B236" s="21"/>
+      <c r="C236" s="21"/>
     </row>
     <row r="238" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
@@ -12944,11 +12947,11 @@
       </c>
     </row>
     <row r="242" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A242" s="20" t="s">
+      <c r="A242" s="21" t="s">
         <v>522</v>
       </c>
-      <c r="B242" s="20"/>
-      <c r="C242" s="20"/>
+      <c r="B242" s="21"/>
+      <c r="C242" s="21"/>
     </row>
     <row r="244" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
@@ -12995,11 +12998,11 @@
       </c>
     </row>
     <row r="249" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A249" s="20" t="s">
+      <c r="A249" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="B249" s="20"/>
-      <c r="C249" s="20"/>
+      <c r="B249" s="21"/>
+      <c r="C249" s="21"/>
     </row>
     <row r="251" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
@@ -13046,11 +13049,11 @@
       </c>
     </row>
     <row r="256" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A256" s="20" t="s">
+      <c r="A256" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="B256" s="20"/>
-      <c r="C256" s="20"/>
+      <c r="B256" s="21"/>
+      <c r="C256" s="21"/>
     </row>
     <row r="258" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
@@ -13109,22 +13112,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A256:C256"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A236:C236"/>
-    <mergeCell ref="A242:C242"/>
-    <mergeCell ref="A249:C249"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="A176:C176"/>
-    <mergeCell ref="A190:C190"/>
-    <mergeCell ref="A202:C202"/>
-    <mergeCell ref="A208:C208"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="A157:C157"/>
     <mergeCell ref="A99:C99"/>
     <mergeCell ref="A109:C109"/>
     <mergeCell ref="A116:C116"/>
@@ -13134,6 +13121,22 @@
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="A84:C84"/>
     <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="A176:C176"/>
+    <mergeCell ref="A190:C190"/>
+    <mergeCell ref="A202:C202"/>
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="A256:C256"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A236:C236"/>
+    <mergeCell ref="A242:C242"/>
+    <mergeCell ref="A249:C249"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13144,10 +13147,10 @@
   <dimension ref="A1:K170"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I1" sqref="I1:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
@@ -13155,8 +13158,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I1" s="8" t="s">
-        <v>541</v>
+      <c r="I1" s="8">
+        <v>2020</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>532</v>
@@ -13166,11 +13169,11 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
       <c r="I2" s="8">
         <v>156</v>
       </c>
@@ -13447,7 +13450,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>97</v>
@@ -14976,7 +14979,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B166" s="15" t="s">
         <v>21</v>
@@ -14990,7 +14993,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="14" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B167" s="15" t="s">
         <v>38</v>
@@ -15002,7 +15005,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="14" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B168" s="15" t="s">
         <v>38</v>
@@ -15016,7 +15019,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="14" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B169" s="15" t="s">
         <v>38</v>
@@ -15030,7 +15033,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="14" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B170" s="15" t="s">
         <v>21</v>
@@ -15049,4 +15052,852 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F789F5BF-A4D8-45D9-A2B0-070ECBEA44BA}">
+  <dimension ref="A1:L159"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B2" s="1">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B3" s="1">
+        <v>136</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B4" s="1">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B5" s="1">
+        <v>135</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B6" s="1">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B7" s="1">
+        <v>124</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>